--- a/outputs/hits_k_excel/hits_k_zeroshot_fi.xlsx
+++ b/outputs/hits_k_excel/hits_k_zeroshot_fi.xlsx
@@ -453,14 +453,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="C2" t="n">
         <v>3712</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.64%</t>
+          <t>52.77%</t>
         </is>
       </c>
     </row>
@@ -469,14 +469,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3912</v>
+        <v>3917</v>
       </c>
       <c r="C3" t="n">
         <v>7424</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.69%</t>
+          <t>52.76%</t>
         </is>
       </c>
     </row>
@@ -485,14 +485,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5850</v>
+        <v>5858</v>
       </c>
       <c r="C4" t="n">
         <v>11136</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.53%</t>
+          <t>52.60%</t>
         </is>
       </c>
     </row>
@@ -501,14 +501,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7760</v>
+        <v>7773</v>
       </c>
       <c r="C5" t="n">
         <v>14848</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.26%</t>
+          <t>52.35%</t>
         </is>
       </c>
     </row>
@@ -517,14 +517,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9725</v>
+        <v>9741</v>
       </c>
       <c r="C6" t="n">
         <v>18560</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.40%</t>
+          <t>52.48%</t>
         </is>
       </c>
     </row>
@@ -574,14 +574,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C2" t="n">
         <v>2211</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.47%</t>
+          <t>51.65%</t>
         </is>
       </c>
     </row>
@@ -590,14 +590,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="C3" t="n">
         <v>4422</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.22%</t>
+          <t>51.31%</t>
         </is>
       </c>
     </row>
@@ -606,14 +606,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3394</v>
+        <v>3401</v>
       </c>
       <c r="C4" t="n">
         <v>6633</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.17%</t>
+          <t>51.27%</t>
         </is>
       </c>
     </row>
@@ -622,14 +622,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4504</v>
+        <v>4515</v>
       </c>
       <c r="C5" t="n">
         <v>8844</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.93%</t>
+          <t>51.05%</t>
         </is>
       </c>
     </row>
@@ -638,14 +638,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5645</v>
+        <v>5658</v>
       </c>
       <c r="C6" t="n">
         <v>11055</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51.06%</t>
+          <t>51.18%</t>
         </is>
       </c>
     </row>
@@ -816,14 +816,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" t="n">
         <v>573</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.18%</t>
+          <t>52.36%</t>
         </is>
       </c>
     </row>
@@ -832,14 +832,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C3" t="n">
         <v>1146</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.71%</t>
+          <t>52.79%</t>
         </is>
       </c>
     </row>
@@ -848,14 +848,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C4" t="n">
         <v>1719</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.12%</t>
+          <t>52.18%</t>
         </is>
       </c>
     </row>
@@ -864,14 +864,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C5" t="n">
         <v>2292</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.18%</t>
+          <t>52.27%</t>
         </is>
       </c>
     </row>
@@ -880,14 +880,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="C6" t="n">
         <v>2865</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.22%</t>
+          <t>52.32%</t>
         </is>
       </c>
     </row>

--- a/outputs/hits_k_excel/hits_k_zeroshot_fi.xlsx
+++ b/outputs/hits_k_excel/hits_k_zeroshot_fi.xlsx
@@ -9,10 +9,19 @@
   <sheets>
     <sheet name="Total Hits" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Hits_entity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Hits_numerical" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Hits_boolean" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Hits_date" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Hits_string" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Hits_intersection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Hits_numerical" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hits_count" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Hits_comparative" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Hits_boolean" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Hits_yesno" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Hits_date" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hits_generic" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Hits_ordinal" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Hits_multihop" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Hits_string" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Hits_difference" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Hits_superlative" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,14 +462,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="C2" t="n">
         <v>3712</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.64%</t>
+          <t>52.77%</t>
         </is>
       </c>
     </row>
@@ -469,14 +478,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3912</v>
+        <v>3917</v>
       </c>
       <c r="C3" t="n">
         <v>7424</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.69%</t>
+          <t>52.76%</t>
         </is>
       </c>
     </row>
@@ -485,14 +494,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5850</v>
+        <v>5858</v>
       </c>
       <c r="C4" t="n">
         <v>11136</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.53%</t>
+          <t>52.60%</t>
         </is>
       </c>
     </row>
@@ -501,14 +510,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7760</v>
+        <v>7773</v>
       </c>
       <c r="C5" t="n">
         <v>14848</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.26%</t>
+          <t>52.35%</t>
         </is>
       </c>
     </row>
@@ -517,14 +526,740 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9725</v>
+        <v>9741</v>
       </c>
       <c r="C6" t="n">
         <v>18560</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.40%</t>
+          <t>52.48%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>421</v>
+      </c>
+      <c r="C2" t="n">
+        <v>714</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>846</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1428</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2142</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2856</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2111</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3570</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.13%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>205</v>
+      </c>
+      <c r="C2" t="n">
+        <v>363</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>410</v>
+      </c>
+      <c r="C3" t="n">
+        <v>726</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>611</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1089</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>806</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1452</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.10%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C2" t="n">
+        <v>364</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>260</v>
+      </c>
+      <c r="C3" t="n">
+        <v>728</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>405</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1092</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>537</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1456</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>679</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.31%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>135</v>
+      </c>
+      <c r="C2" t="n">
+        <v>346</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>261</v>
+      </c>
+      <c r="C3" t="n">
+        <v>692</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>513</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1384</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>650</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.57%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>173</v>
+      </c>
+      <c r="C2" t="n">
+        <v>355</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>333</v>
+      </c>
+      <c r="C3" t="n">
+        <v>710</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>494</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>650</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>818</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1775</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.08%</t>
         </is>
       </c>
     </row>
@@ -574,14 +1309,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C2" t="n">
         <v>2211</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.47%</t>
+          <t>51.65%</t>
         </is>
       </c>
     </row>
@@ -590,14 +1325,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="C3" t="n">
         <v>4422</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.22%</t>
+          <t>51.31%</t>
         </is>
       </c>
     </row>
@@ -606,14 +1341,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3394</v>
+        <v>3401</v>
       </c>
       <c r="C4" t="n">
         <v>6633</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.17%</t>
+          <t>51.27%</t>
         </is>
       </c>
     </row>
@@ -622,14 +1357,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4504</v>
+        <v>4515</v>
       </c>
       <c r="C5" t="n">
         <v>8844</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50.93%</t>
+          <t>51.05%</t>
         </is>
       </c>
     </row>
@@ -638,14 +1373,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5645</v>
+        <v>5658</v>
       </c>
       <c r="C6" t="n">
         <v>11055</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51.06%</t>
+          <t>51.18%</t>
         </is>
       </c>
     </row>
@@ -695,14 +1430,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="C2" t="n">
-        <v>655</v>
+        <v>376</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.47%</t>
+          <t>61.17%</t>
         </is>
       </c>
     </row>
@@ -711,14 +1446,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>658</v>
+        <v>462</v>
       </c>
       <c r="C3" t="n">
-        <v>1310</v>
+        <v>752</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50.23%</t>
+          <t>61.44%</t>
         </is>
       </c>
     </row>
@@ -727,14 +1462,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>988</v>
+        <v>701</v>
       </c>
       <c r="C4" t="n">
-        <v>1965</v>
+        <v>1128</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.28%</t>
+          <t>62.15%</t>
         </is>
       </c>
     </row>
@@ -743,14 +1478,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1306</v>
+        <v>929</v>
       </c>
       <c r="C5" t="n">
-        <v>2620</v>
+        <v>1504</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>49.85%</t>
+          <t>61.77%</t>
         </is>
       </c>
     </row>
@@ -759,14 +1494,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1642</v>
+        <v>1157</v>
       </c>
       <c r="C6" t="n">
-        <v>3275</v>
+        <v>1880</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50.14%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -816,14 +1551,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="C2" t="n">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.18%</t>
+          <t>49.47%</t>
         </is>
       </c>
     </row>
@@ -832,14 +1567,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="C3" t="n">
-        <v>1146</v>
+        <v>1310</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.71%</t>
+          <t>50.23%</t>
         </is>
       </c>
     </row>
@@ -848,14 +1583,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>896</v>
+        <v>988</v>
       </c>
       <c r="C4" t="n">
-        <v>1719</v>
+        <v>1965</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.12%</t>
+          <t>50.28%</t>
         </is>
       </c>
     </row>
@@ -864,14 +1599,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1196</v>
+        <v>1306</v>
       </c>
       <c r="C5" t="n">
-        <v>2292</v>
+        <v>2620</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.18%</t>
+          <t>49.85%</t>
         </is>
       </c>
     </row>
@@ -880,14 +1615,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1496</v>
+        <v>1642</v>
       </c>
       <c r="C6" t="n">
-        <v>2865</v>
+        <v>3275</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.22%</t>
+          <t>50.14%</t>
         </is>
       </c>
     </row>
@@ -937,14 +1672,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="C2" t="n">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.81%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -953,14 +1688,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>370</v>
+        <v>487</v>
       </c>
       <c r="C3" t="n">
-        <v>530</v>
+        <v>800</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.81%</t>
+          <t>60.88%</t>
         </is>
       </c>
     </row>
@@ -969,14 +1704,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>549</v>
+        <v>733</v>
       </c>
       <c r="C4" t="n">
-        <v>795</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69.06%</t>
+          <t>61.08%</t>
         </is>
       </c>
     </row>
@@ -985,14 +1720,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>726</v>
+        <v>962</v>
       </c>
       <c r="C5" t="n">
-        <v>1060</v>
+        <v>1600</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.49%</t>
+          <t>60.12%</t>
         </is>
       </c>
     </row>
@@ -1001,14 +1736,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>908</v>
+        <v>1206</v>
       </c>
       <c r="C6" t="n">
-        <v>1325</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>68.53%</t>
+          <t>60.30%</t>
         </is>
       </c>
     </row>
@@ -1058,14 +1793,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>54.82%</t>
         </is>
       </c>
     </row>
@@ -1074,14 +1809,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>424</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>788</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.75%</t>
+          <t>53.81%</t>
         </is>
       </c>
     </row>
@@ -1090,14 +1825,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>634</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>1182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.83%</t>
+          <t>53.64%</t>
         </is>
       </c>
     </row>
@@ -1106,14 +1841,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>842</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>1576</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>53.43%</t>
         </is>
       </c>
     </row>
@@ -1122,14 +1857,377 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>1042</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>1970</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>52.89%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" t="n">
+        <v>573</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>605</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1146</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>897</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2292</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.32%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>213</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>434</v>
+      </c>
+      <c r="C3" t="n">
+        <v>800</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>639</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>855</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.90%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>185</v>
+      </c>
+      <c r="C2" t="n">
+        <v>265</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>370</v>
+      </c>
+      <c r="C3" t="n">
+        <v>530</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>549</v>
+      </c>
+      <c r="C4" t="n">
+        <v>795</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>726</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>908</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1325</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.53%</t>
         </is>
       </c>
     </row>
